--- a/data/trans_camb/P15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,27</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 6,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 3,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,91; -0,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 5,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 2,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 6,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 5,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 2,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,0; 1,15</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,89%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,32; 72,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,95; 48,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,35; -1,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; 158,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,43; 67,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,66; 192,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 79,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,84; 31,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,74; 16,91</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 6,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 2,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; 1,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 3,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 1,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; 0,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 4,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 1,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; -0,13</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,59%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 89,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,07; 38,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,4; 24,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,17; 84,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,07; 27,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,62; 4,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 68,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,87; 16,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,44; -1,7</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 4,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 1,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 2,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 3,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 2,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 4,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 2,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 1,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 2,68</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,44%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,75; 73,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,94; 26,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,28; 50,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,55; 164,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,94; 152,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 206,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,2; 67,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,16; 26,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,02; 67,46</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,23; 1,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,66; -0,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 2,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 4,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 2,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 2,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 1,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 0,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 1,76</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,62%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,57; 17,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,32; -7,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,93; 39,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,35; 175,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,47; 97,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,74; 85,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,49; 38,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,42; 4,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,07; 36,41</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,5; 0,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 0,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 3,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 8,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 4,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 4,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 3,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 1,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 2,9</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,9%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,59%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,51%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,82%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,27%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,45; 20,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,69; 23,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,19; 96,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,88; 270,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,96; 157,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,2; 161,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,4; 109,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,34; 56,55</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,84; 82,62</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 5,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 2,67</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 3,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 4,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 3,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,47; 2,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 4,45</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 2,23</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 2,85</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,24%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,63%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,95; 219,13</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,25; 99,76</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,08; 135,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,76; 68,43</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,53; 46,51</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,7; 37,9</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 75,52</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,96; 37,98</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,2; 51,04</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 2,41</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,8; -0,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 0,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 3,23</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 1,26</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 1,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 2,46</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 0,27</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 0,7</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,72%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,38%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,41%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,32%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 36,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,67; -4,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,11; 0,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,68; 68,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,39; 27,67</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 40,09</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,68; 41,73</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,5; 4,44</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,53; 11,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-2,38</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,91; -0,52</t>
+          <t>-10,01; -0,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 6,73</t>
+          <t>-2,13; 6,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 1,15</t>
+          <t>-5,12; 1,17</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-55,62%</t>
+          <t>-55,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-28,89%</t>
+          <t>-30,29%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,35; -1,69</t>
+          <t>-81,47; -1,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 192,02</t>
+          <t>-40,78; 186,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 16,91</t>
+          <t>-62,29; 16,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,81</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 1,71</t>
+          <t>-5,92; 1,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 0,06</t>
+          <t>-5,38; -0,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; -0,13</t>
+          <t>-4,87; -0,2</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-27,08%</t>
+          <t>-26,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,76%</t>
+          <t>-48,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-35,59%</t>
+          <t>-38,39%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,4; 24,94</t>
+          <t>-60,38; 25,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,62; 4,7</t>
+          <t>-76,53; -4,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,44; -1,7</t>
+          <t>-61,44; -2,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 2,75</t>
+          <t>-3,27; 3,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,27</t>
+          <t>0,16; 4,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,68</t>
+          <t>-0,8; 2,82</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,83%</t>
+          <t>-3,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,16%</t>
+          <t>76,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>21,26%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,28; 50,03</t>
+          <t>-38,53; 54,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 206,71</t>
+          <t>-0,51; 207,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 67,46</t>
+          <t>-13,41; 71,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,89</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,51</t>
+          <t>-7,89; 1,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,29</t>
+          <t>-1,97; 2,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,76</t>
+          <t>-3,31; 1,23</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,92%</t>
+          <t>-27,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-2,62%</t>
+          <t>-15,16%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,93; 39,5</t>
+          <t>-74,42; 16,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,74; 85,03</t>
+          <t>-37,44; 82,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 36,41</t>
+          <t>-50,03; 22,52</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 3,13</t>
+          <t>-2,87; 3,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,55</t>
+          <t>-0,72; 4,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,9</t>
+          <t>-0,65; 2,98</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>25,15%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,19; 96,99</t>
+          <t>-41,69; 99,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 161,69</t>
+          <t>-11,78; 163,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 82,62</t>
+          <t>-12,44; 83,39</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-0,69</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,97</t>
+          <t>-1,15; 5,61</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,67</t>
+          <t>-3,27; 2,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,7</t>
+          <t>-1,86; 3,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 4,92</t>
+          <t>-4,03; 3,37</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,43</t>
+          <t>-3,64; 4,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 2,88</t>
+          <t>-7,38; 1,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,45</t>
+          <t>-2,06; 3,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,23</t>
+          <t>-2,48; 2,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,85</t>
+          <t>-4,31; 1,68</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>51,7%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>-11,17%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>42,12%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>-27,57%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>-12,0%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>5,95; 219,13</t>
+          <t>-32,01; 249,46</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 99,76</t>
+          <t>-63,74; 116,35</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 135,41</t>
+          <t>-37,93; 158,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 68,43</t>
+          <t>-42,67; 64,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 46,51</t>
+          <t>-40,25; 80,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 37,9</t>
+          <t>-74,46; 28,88</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,27; 75,52</t>
+          <t>-29,1; 77,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 37,98</t>
+          <t>-37,17; 56,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 51,04</t>
+          <t>-60,49; 34,14</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>2,49</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,41</t>
+          <t>-0,15; 8,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,8; -0,31</t>
+          <t>-1,99; 5,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,01</t>
+          <t>-0,82; 6,47</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,23</t>
+          <t>-1,38; 8,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,26</t>
+          <t>-4,55; 4,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,98</t>
+          <t>-2,37; 6,04</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,46</t>
+          <t>0,43; 7,64</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,27</t>
+          <t>-2,58; 4,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,7</t>
+          <t>-0,54; 5,35</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>109,78%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-20,72%</t>
+          <t>40,57%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-18,38%</t>
+          <t>74,47%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>50,92%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-10,35%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>31,53%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-8,12; 329,71</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-35,37; 276,83</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-18,23; 284,1</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-11,53; 112,79</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-37,58; 65,58</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-17,94; 82,14</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 131,03</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-26,12; 67,07</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; 91,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-1,64</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 2,41</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; -0,31</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; -0,17</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 3,23</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 1,26</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 1,74</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 2,46</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 0,27</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 0,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-20,72%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-22,05%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>39,41%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>12,38%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>24,19%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-10,35%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-7,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-3,56; 36,06</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-34,67; -4,88</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-32,11; 0,43</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-39,54; -3,82</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>14,68; 68,54</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-15,39; 27,67</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 40,09</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-11,12; 37,11</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>8,68; 41,73</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-21,5; 4,44</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-14,53; 11,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-21,93; 7,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P15-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 6,6</t>
+          <t>-1,85; 6,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,99</t>
+          <t>-4,28; 3,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,01; -0,54</t>
+          <t>-10,1; -0,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 5,69</t>
+          <t>-0,48; 5,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 2,49</t>
+          <t>-2,89; 2,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 6,75</t>
+          <t>-2,1; 6,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 5,2</t>
+          <t>-0,17; 5,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,17</t>
+          <t>-2,69; 2,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 1,17</t>
+          <t>-5,2; 1,31</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 72,27</t>
+          <t>-15,35; 75,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,95; 48,17</t>
+          <t>-34,18; 43,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,47; -1,96</t>
+          <t>-81,31; -3,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 158,92</t>
+          <t>-14,14; 158,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,43; 67,36</t>
+          <t>-48,24; 79,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 186,69</t>
+          <t>-39,59; 200,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 79,91</t>
+          <t>-2,03; 81,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 31,74</t>
+          <t>-30,25; 39,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,29; 16,52</t>
+          <t>-62,67; 19,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 6,7</t>
+          <t>-0,1; 6,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,78</t>
+          <t>-3,21; 2,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 1,84</t>
+          <t>-5,79; 1,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,6</t>
+          <t>-1,85; 4,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,0</t>
+          <t>-4,44; 0,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; -0,29</t>
+          <t>-5,7; -0,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,36</t>
+          <t>-0,15; 4,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,04</t>
+          <t>-2,94; 0,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; -0,2</t>
+          <t>-4,83; -0,17</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 89,17</t>
+          <t>-1,7; 84,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 38,43</t>
+          <t>-32,07; 37,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,38; 25,77</t>
+          <t>-59,78; 24,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,17; 84,15</t>
+          <t>-27,2; 99,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,07; 27,03</t>
+          <t>-59,28; 21,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,53; -4,7</t>
+          <t>-75,73; 1,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 68,28</t>
+          <t>-1,53; 68,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 16,74</t>
+          <t>-36,09; 14,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,44; -2,12</t>
+          <t>-59,5; -2,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 4,25</t>
+          <t>-1,78; 4,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,29</t>
+          <t>-4,65; 1,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 3,05</t>
+          <t>-3,37; 2,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,22</t>
+          <t>-0,62; 3,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,99</t>
+          <t>-1,19; 2,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 4,35</t>
+          <t>0,27; 4,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,87</t>
+          <t>-0,58; 2,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,12</t>
+          <t>-2,06; 1,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 2,82</t>
+          <t>-0,89; 2,74</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 73,38</t>
+          <t>-21,94; 73,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 26,8</t>
+          <t>-52,5; 18,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,53; 54,54</t>
+          <t>-39,02; 45,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 164,14</t>
+          <t>-18,65; 174,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 152,06</t>
+          <t>-35,75; 133,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 207,48</t>
+          <t>-0,29; 202,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 67,54</t>
+          <t>-10,28; 71,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,16; 26,88</t>
+          <t>-35,79; 27,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 71,92</t>
+          <t>-15,05; 64,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,02</t>
+          <t>-5,19; 1,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,66; -0,48</t>
+          <t>-6,59; -0,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 1,13</t>
+          <t>-8,0; 1,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,49</t>
+          <t>-0,75; 4,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,35</t>
+          <t>-2,46; 2,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,17</t>
+          <t>-2,05; 2,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,89</t>
+          <t>-2,14; 2,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 0,15</t>
+          <t>-3,74; 0,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,23</t>
+          <t>-3,7; 1,06</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,57; 17,67</t>
+          <t>-50,9; 24,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,32; -7,38</t>
+          <t>-65,76; -9,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-74,42; 16,53</t>
+          <t>-72,69; 15,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 175,08</t>
+          <t>-17,22; 152,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,47; 97,44</t>
+          <t>-48,03; 91,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,44; 82,52</t>
+          <t>-39,93; 79,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 38,89</t>
+          <t>-30,3; 41,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-51,42; 4,94</t>
+          <t>-51,12; 4,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,03; 22,52</t>
+          <t>-51,17; 18,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,57</t>
+          <t>-4,64; 0,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 0,71</t>
+          <t>-5,12; 0,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 3,11</t>
+          <t>-2,62; 3,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,67; 8,35</t>
+          <t>1,35; 8,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,6</t>
+          <t>-1,51; 4,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,6</t>
+          <t>-0,65; 4,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,83</t>
+          <t>-0,6; 3,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,96</t>
+          <t>-2,18; 1,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,98</t>
+          <t>-0,78; 2,96</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-73,45; 20,86</t>
+          <t>-71,93; 18,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-73,69; 23,28</t>
+          <t>-72,29; 19,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 99,3</t>
+          <t>-38,29; 95,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,88; 270,55</t>
+          <t>17,62; 293,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 157,28</t>
+          <t>-27,0; 152,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 163,28</t>
+          <t>-11,42; 156,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 109,56</t>
+          <t>-10,77; 107,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-37,34; 56,55</t>
+          <t>-38,23; 51,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 83,39</t>
+          <t>-13,59; 82,55</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 5,61</t>
+          <t>-1,34; 5,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 2,38</t>
+          <t>-3,3; 2,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,28</t>
+          <t>-2,15; 3,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,37</t>
+          <t>-4,15; 3,76</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 4,58</t>
+          <t>-3,47; 4,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 1,88</t>
+          <t>-7,3; 2,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 3,23</t>
+          <t>-1,81; 3,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,54</t>
+          <t>-2,39; 2,49</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,68</t>
+          <t>-3,98; 1,7</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-32,01; 249,46</t>
+          <t>-30,97; 228,8</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-63,74; 116,35</t>
+          <t>-65,16; 110,81</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 158,96</t>
+          <t>-42,11; 142,86</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 64,38</t>
+          <t>-46,37; 71,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-40,25; 80,9</t>
+          <t>-38,86; 78,04</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-74,46; 28,88</t>
+          <t>-73,41; 30,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 77,24</t>
+          <t>-27,48; 80,72</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-37,17; 56,15</t>
+          <t>-36,1; 58,87</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-60,49; 34,14</t>
+          <t>-54,19; 34,13</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 8,85</t>
+          <t>0,5; 9,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,53</t>
+          <t>-2,1; 5,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 6,47</t>
+          <t>-0,26; 6,59</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 8,65</t>
+          <t>-1,63; 8,9</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 4,98</t>
+          <t>-5,36; 4,69</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 6,04</t>
+          <t>-1,89; 6,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,43; 7,64</t>
+          <t>0,69; 7,47</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,22</t>
+          <t>-2,76; 3,9</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,35</t>
+          <t>-0,52; 5,19</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 329,71</t>
+          <t>-2,2; 382,32</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-35,37; 276,83</t>
+          <t>-36,71; 245,4</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 284,1</t>
+          <t>-10,19; 317,49</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 112,79</t>
+          <t>-13,33; 112,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-37,58; 65,58</t>
+          <t>-40,79; 61,25</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 82,14</t>
+          <t>-15,34; 85,86</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>4,43; 131,03</t>
+          <t>7,14; 120,88</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 67,07</t>
+          <t>-28,58; 63,7</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 91,56</t>
+          <t>-5,26; 84,72</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,41</t>
+          <t>-0,34; 2,41</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,8; -0,31</t>
+          <t>-2,75; -0,32</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -0,17</t>
+          <t>-3,27; -0,23</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,23</t>
+          <t>0,75; 3,24</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 1,26</t>
+          <t>-0,88; 1,36</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,74</t>
+          <t>-0,63; 1,92</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,46</t>
+          <t>0,53; 2,4</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,27</t>
+          <t>-1,47; 0,24</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,46</t>
+          <t>-1,51; 0,45</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 36,06</t>
+          <t>-4,29; 36,24</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-34,67; -4,88</t>
+          <t>-34,96; -5,06</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-39,54; -3,82</t>
+          <t>-41,03; -3,14</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>14,68; 68,54</t>
+          <t>12,14; 67,82</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 27,67</t>
+          <t>-16,38; 29,61</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 37,11</t>
+          <t>-11,54; 40,77</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>8,68; 41,73</t>
+          <t>7,49; 41,1</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 4,44</t>
+          <t>-21,95; 4,09</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 7,73</t>
+          <t>-23,06; 7,79</t>
         </is>
       </c>
     </row>
